--- a/final_market_sentiments.xlsx
+++ b/final_market_sentiments.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="monthly sentiments" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="quarterly sentiments" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="yearly sentiments" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,16 +18,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -46,12 +51,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -79,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -87,8 +107,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8331,7 +8352,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -10605,7 +10626,719 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Average_Sentiment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2010Q1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2010Q2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.09999999999999992</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2011Q2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3533333333333333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2011Q3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2012Q2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2012Q3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2013Q1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1022222222222222</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2013Q2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2013Q3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2013Q4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2944444444444445</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2014Q1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1357407407407407</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2014Q2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2512820512820513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2014Q3</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4027777777777777</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2014Q4</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3435294117647059</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2015Q1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1172222222222222</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2015Q2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1461904761904762</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2015Q3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2015Q4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1338095238095238</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2016Q1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.7911111111111112</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2016Q2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1860215053763441</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2016Q3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4490666666666667</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2016Q4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2017Q2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4248888888888889</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2017Q3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4994444444444444</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2017Q4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2018Q1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2769047619047619</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2018Q2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4721212121212121</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2018Q3</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4994736842105263</v>
+      </c>
+      <c r="C29" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2018Q4</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5436363636363636</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019Q1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3573684210526316</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019Q2</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5009259259259259</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019Q3</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4643333333333333</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019Q4</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.2964814814814815</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2020Q1</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.3766666666666667</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2020Q2</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1938888888888889</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2020Q3</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4066666666666666</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2020Q4</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3329824561403509</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2021Q1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5024637681159421</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2021Q2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4752083333333333</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2021Q3</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4923809523809524</v>
+      </c>
+      <c r="C41" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2021Q4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5059523809523809</v>
+      </c>
+      <c r="C42" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022Q1</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3595238095238095</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022Q2</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5067816091954023</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022Q3</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5203448275862069</v>
+      </c>
+      <c r="C45" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022Q4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1170833333333333</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023Q1</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1577777777777778</v>
+      </c>
+      <c r="C47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023Q2</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.01216666666666666</v>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023Q3</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3335483870967742</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023Q4</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024Q1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024Q2</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2337931034482758</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024Q3</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10614,855 +11347,233 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Quarter</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Average_Sentiment</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Percentage Change</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2010Q1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3666666666666667</v>
+        <v>0.05555555555555566</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2010Q2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.09999999999999992</v>
+        <v>0.532</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.272727272727272</v>
+        <v>8.575999999999983</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2011Q2</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3533333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.533333333333335</v>
+        <v>-0.7493734335839599</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2011Q3</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.2920833333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.264150943396227</v>
+        <v>1.190625000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2012Q2</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2972875816993464</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6041666666666666</v>
+        <v>0.0178176834214423</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2012Q3</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05</v>
+        <v>0.1315555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.157894736842105</v>
+        <v>-0.5574804880729909</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2013Q1</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1022222222222222</v>
+        <v>0.2904347826086957</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.044444444444444</v>
+        <v>1.207696827262045</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2013Q2</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>0.75</v>
+        <v>0.4404166666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>6.336956521739132</v>
+        <v>0.5164046906187623</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2013Q3</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22</v>
+        <v>0.4638095238095238</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7066666666666667</v>
+        <v>0.05311528584943903</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2013Q4</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2019</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2944444444444445</v>
+        <v>0.4126274509803921</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3383838383838387</v>
+        <v>-0.110351491726054</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2014Q1</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2020</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1357407407407407</v>
+        <v>0.3279661016949152</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5389937106918241</v>
+        <v>-0.205176240902838</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2014Q2</t>
-        </is>
+      <c r="A13" t="n">
+        <v>2021</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2512820512820513</v>
+        <v>0.4962121212121212</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8511911008500375</v>
+        <v>0.512998199044711</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2014Q3</t>
-        </is>
+      <c r="A14" t="n">
+        <v>2022</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.4553424657534247</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6028911564625847</v>
+        <v>-0.08236327512286934</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2014Q4</t>
-        </is>
+      <c r="A15" t="n">
+        <v>2023</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3435294117647059</v>
+        <v>0.1939130434782609</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1470993914807299</v>
+        <v>-0.5741380212420865</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2015Q1</t>
-        </is>
+      <c r="A16" t="n">
+        <v>2024</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1172222222222222</v>
+        <v>0.2277160493827161</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6587709284627095</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2015Q2</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1461904761904762</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2471225457007451</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2015Q3</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1275</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.1278501628664496</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2015Q4</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1338095238095238</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.04948646125116696</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2016Q1</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.7911111111111112</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-6.912218268090156</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2016Q2</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1860215053763441</v>
-      </c>
-      <c r="C21" t="n">
-        <v>31</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-1.235139543312795</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2016Q3</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4490666666666667</v>
-      </c>
-      <c r="C22" t="n">
-        <v>25</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.414057803468208</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2016Q4</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-0.1834916864608079</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2017Q2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4248888888888889</v>
-      </c>
-      <c r="C24" t="n">
-        <v>15</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1587878787878791</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2017Q3</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4994444444444444</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.175470711297071</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2017Q4</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.4038461538461539</v>
-      </c>
-      <c r="C26" t="n">
-        <v>13</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.1914092581500811</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2018Q1</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.2769047619047619</v>
-      </c>
-      <c r="C27" t="n">
-        <v>14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.3143310657596373</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2018Q2</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.4721212121212121</v>
-      </c>
-      <c r="C28" t="n">
-        <v>22</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.7049949190963809</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2018Q3</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.4994736842105263</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.05793527464360504</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2018Q4</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5436363636363636</v>
-      </c>
-      <c r="C30" t="n">
-        <v>22</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.08841843088418422</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2019Q1</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.3573684210526316</v>
-      </c>
-      <c r="C31" t="n">
-        <v>19</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-0.3426333392008448</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2019Q2</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5009259259259259</v>
-      </c>
-      <c r="C32" t="n">
-        <v>18</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.4017073037691592</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2019Q3</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.4643333333333333</v>
-      </c>
-      <c r="C33" t="n">
-        <v>30</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-0.07304990757855823</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019Q4</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.2964814814814815</v>
-      </c>
-      <c r="C34" t="n">
-        <v>18</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-0.361489989630693</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2020Q1</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.3766666666666667</v>
-      </c>
-      <c r="C35" t="n">
-        <v>23</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.2704559650218614</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2020Q2</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1938888888888889</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-0.4852507374631269</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2020Q3</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.4066666666666666</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.097421203438395</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2020Q4</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.3329824561403509</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.181190681622088</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2021Q1</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5024637681159421</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5089797040362853</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2021Q2</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4752083333333333</v>
-      </c>
-      <c r="C40" t="n">
-        <v>16</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-0.05424358234785132</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2021Q3</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.4923809523809524</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.03613703262979917</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2021Q4</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5059523809523809</v>
-      </c>
-      <c r="C42" t="n">
-        <v>28</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.02756286266924546</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2022Q1</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.3595238095238095</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-0.2894117647058824</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2022Q2</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5067816091954023</v>
-      </c>
-      <c r="C44" t="n">
-        <v>29</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4095912308746288</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2022Q3</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5203448275862069</v>
-      </c>
-      <c r="C45" t="n">
-        <v>29</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.02676343842141082</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2022Q4</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1170833333333333</v>
-      </c>
-      <c r="C46" t="n">
-        <v>8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-0.7749889551579413</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2023Q1</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1577777777777778</v>
-      </c>
-      <c r="C47" t="n">
-        <v>21</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3475682087781737</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2023Q2</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>-0.01216666666666666</v>
-      </c>
-      <c r="C48" t="n">
-        <v>20</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-1.077112676056338</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2023Q3</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.3335483870967742</v>
-      </c>
-      <c r="C49" t="n">
-        <v>31</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-28.41493592576228</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2023Q4</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2215</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-0.3359284332688588</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2024Q1</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="C51" t="n">
-        <v>24</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-0.04690243290694762</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2024Q2</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2337931034482758</v>
-      </c>
-      <c r="C52" t="n">
-        <v>29</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.1074410163339381</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2024Q3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9247787610619473</v>
+        <v>0.1743204340364282</v>
       </c>
     </row>
   </sheetData>

--- a/final_market_sentiments.xlsx
+++ b/final_market_sentiments.xlsx
@@ -10626,28 +10626,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Quarter</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Average_Sentiment</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Percentage Change</t>
         </is>
       </c>
     </row>
@@ -10663,6 +10668,7 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10676,6 +10682,9 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>-1.272727272727272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -10689,6 +10698,9 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="n">
+        <v>-4.533333333333335</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10702,6 +10714,9 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.264150943396227</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -10715,6 +10730,9 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.6041666666666666</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10728,6 +10746,9 @@
       <c r="C7" t="n">
         <v>2</v>
       </c>
+      <c r="D7" t="n">
+        <v>-1.157894736842105</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10741,6 +10762,9 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>-3.044444444444444</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10754,6 +10778,9 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
+      <c r="D9" t="n">
+        <v>6.336956521739132</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10767,6 +10794,9 @@
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.7066666666666667</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10780,6 +10810,9 @@
       <c r="C11" t="n">
         <v>6</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.3383838383838387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10793,6 +10826,9 @@
       <c r="C12" t="n">
         <v>9</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.5389937106918241</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10806,6 +10842,9 @@
       <c r="C13" t="n">
         <v>13</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.8511911008500375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10819,6 +10858,9 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.6028911564625847</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10832,6 +10874,9 @@
       <c r="C15" t="n">
         <v>17</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.1470993914807299</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10845,6 +10890,9 @@
       <c r="C16" t="n">
         <v>12</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.6587709284627095</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10858,6 +10906,9 @@
       <c r="C17" t="n">
         <v>14</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.2471225457007451</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10871,6 +10922,9 @@
       <c r="C18" t="n">
         <v>12</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.1278501628664496</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10884,6 +10938,9 @@
       <c r="C19" t="n">
         <v>7</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.04948646125116696</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10897,6 +10954,9 @@
       <c r="C20" t="n">
         <v>3</v>
       </c>
+      <c r="D20" t="n">
+        <v>-6.912218268090156</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10910,6 +10970,9 @@
       <c r="C21" t="n">
         <v>31</v>
       </c>
+      <c r="D21" t="n">
+        <v>-1.235139543312795</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10923,6 +10986,9 @@
       <c r="C22" t="n">
         <v>25</v>
       </c>
+      <c r="D22" t="n">
+        <v>1.414057803468208</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10936,6 +11002,9 @@
       <c r="C23" t="n">
         <v>33</v>
       </c>
+      <c r="D23" t="n">
+        <v>-0.1834916864608079</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10949,6 +11018,9 @@
       <c r="C24" t="n">
         <v>15</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.1587878787878791</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10962,6 +11034,9 @@
       <c r="C25" t="n">
         <v>12</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.175470711297071</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10975,6 +11050,9 @@
       <c r="C26" t="n">
         <v>13</v>
       </c>
+      <c r="D26" t="n">
+        <v>-0.1914092581500811</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -10988,6 +11066,9 @@
       <c r="C27" t="n">
         <v>14</v>
       </c>
+      <c r="D27" t="n">
+        <v>-0.3143310657596373</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11001,6 +11082,9 @@
       <c r="C28" t="n">
         <v>22</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.7049949190963809</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11014,6 +11098,9 @@
       <c r="C29" t="n">
         <v>19</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.05793527464360504</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11027,6 +11114,9 @@
       <c r="C30" t="n">
         <v>22</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.08841843088418422</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11040,6 +11130,9 @@
       <c r="C31" t="n">
         <v>19</v>
       </c>
+      <c r="D31" t="n">
+        <v>-0.3426333392008448</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11053,6 +11146,9 @@
       <c r="C32" t="n">
         <v>18</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.4017073037691592</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11066,6 +11162,9 @@
       <c r="C33" t="n">
         <v>30</v>
       </c>
+      <c r="D33" t="n">
+        <v>-0.07304990757855823</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11079,6 +11178,9 @@
       <c r="C34" t="n">
         <v>18</v>
       </c>
+      <c r="D34" t="n">
+        <v>-0.361489989630693</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11092,6 +11194,9 @@
       <c r="C35" t="n">
         <v>23</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.2704559650218614</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11105,6 +11210,9 @@
       <c r="C36" t="n">
         <v>12</v>
       </c>
+      <c r="D36" t="n">
+        <v>-0.4852507374631269</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11118,6 +11226,9 @@
       <c r="C37" t="n">
         <v>5</v>
       </c>
+      <c r="D37" t="n">
+        <v>1.097421203438395</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11131,6 +11242,9 @@
       <c r="C38" t="n">
         <v>19</v>
       </c>
+      <c r="D38" t="n">
+        <v>-0.181190681622088</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11144,6 +11258,9 @@
       <c r="C39" t="n">
         <v>23</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.5089797040362853</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11157,6 +11274,9 @@
       <c r="C40" t="n">
         <v>16</v>
       </c>
+      <c r="D40" t="n">
+        <v>-0.05424358234785132</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11170,6 +11290,9 @@
       <c r="C41" t="n">
         <v>21</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.03613703262979917</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11183,6 +11306,9 @@
       <c r="C42" t="n">
         <v>28</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.02756286266924546</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11196,6 +11322,9 @@
       <c r="C43" t="n">
         <v>7</v>
       </c>
+      <c r="D43" t="n">
+        <v>-0.2894117647058824</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11209,6 +11338,9 @@
       <c r="C44" t="n">
         <v>29</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.4095912308746288</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11222,6 +11354,9 @@
       <c r="C45" t="n">
         <v>29</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.02676343842141082</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11235,6 +11370,9 @@
       <c r="C46" t="n">
         <v>8</v>
       </c>
+      <c r="D46" t="n">
+        <v>-0.7749889551579413</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11248,6 +11386,9 @@
       <c r="C47" t="n">
         <v>21</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.3475682087781737</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11261,6 +11402,9 @@
       <c r="C48" t="n">
         <v>20</v>
       </c>
+      <c r="D48" t="n">
+        <v>-1.077112676056338</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11274,6 +11418,9 @@
       <c r="C49" t="n">
         <v>31</v>
       </c>
+      <c r="D49" t="n">
+        <v>-28.41493592576228</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11287,6 +11434,9 @@
       <c r="C50" t="n">
         <v>20</v>
       </c>
+      <c r="D50" t="n">
+        <v>-0.3359284332688588</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11300,6 +11450,9 @@
       <c r="C51" t="n">
         <v>24</v>
       </c>
+      <c r="D51" t="n">
+        <v>-0.04690243290694762</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11313,6 +11466,9 @@
       <c r="C52" t="n">
         <v>29</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.1074410163339381</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11325,6 +11481,9 @@
       </c>
       <c r="C53" t="n">
         <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9247787610619473</v>
       </c>
     </row>
   </sheetData>
@@ -11378,7 +11537,6 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
